--- a/gold_coin_prices.xlsx
+++ b/gold_coin_prices.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azizi-h\Desktop\دوست عزیز\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\den\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7400,7 +7400,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7453,7 +7453,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13577,7 +13577,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-98A8-4BD3-BAE1-E0C3B64DFD31}"/>
             </c:ext>
@@ -13592,11 +13592,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="962933407"/>
-        <c:axId val="962935487"/>
+        <c:axId val="1499737904"/>
+        <c:axId val="1499743344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="962933407"/>
+        <c:axId val="1499737904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13639,7 +13639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="962935487"/>
+        <c:crossAx val="1499743344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13647,7 +13647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="962935487"/>
+        <c:axId val="1499743344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13698,7 +13698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="962933407"/>
+        <c:crossAx val="1499737904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14601,10 +14601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2458"/>
+  <dimension ref="A1:D2459"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2421" workbookViewId="0">
-      <selection activeCell="C2280" sqref="C2280"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2445" workbookViewId="0">
+      <selection activeCell="A2459" sqref="A2459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51610,6 +51610,11 @@
         <v>-60000</v>
       </c>
     </row>
+    <row r="2459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2459" s="1">
+        <v>11995000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/gold_coin_prices.xlsx
+++ b/gold_coin_prices.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="2457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="2468">
   <si>
     <t>92/02/17</t>
   </si>
@@ -7395,6 +7395,39 @@
   </si>
   <si>
     <t>1400/07/10</t>
+  </si>
+  <si>
+    <t>1400/07/11</t>
+  </si>
+  <si>
+    <t>1400/07/12</t>
+  </si>
+  <si>
+    <t>1400/07/14</t>
+  </si>
+  <si>
+    <t>1400/07/17</t>
+  </si>
+  <si>
+    <t>1400/07/18</t>
+  </si>
+  <si>
+    <t>1400/07/19</t>
+  </si>
+  <si>
+    <t>1400/07/20</t>
+  </si>
+  <si>
+    <t>1400/07/21</t>
+  </si>
+  <si>
+    <t>1400/07/22</t>
+  </si>
+  <si>
+    <t>1400/07/24</t>
+  </si>
+  <si>
+    <t>1400/07/25</t>
   </si>
 </sst>
 </file>
@@ -13592,11 +13625,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1499737904"/>
-        <c:axId val="1499743344"/>
+        <c:axId val="312826544"/>
+        <c:axId val="312829264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1499737904"/>
+        <c:axId val="312826544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13639,7 +13672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499743344"/>
+        <c:crossAx val="312829264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13647,7 +13680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1499743344"/>
+        <c:axId val="312829264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13698,7 +13731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499737904"/>
+        <c:crossAx val="312826544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14601,10 +14634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2459"/>
+  <dimension ref="A1:D2469"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2445" workbookViewId="0">
-      <selection activeCell="A2459" sqref="A2459"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2448" workbookViewId="0">
+      <selection activeCell="B2459" sqref="B2459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51611,8 +51644,91 @@
       </c>
     </row>
     <row r="2459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2459" s="1" t="s">
+        <v>2457</v>
+      </c>
       <c r="C2459" s="1">
         <v>11995000</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2460" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C2460" s="1">
+        <v>12005000</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2461" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C2461" s="1">
+        <v>11920000</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2462" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C2462" s="1">
+        <v>11790000</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2463" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C2463" s="1">
+        <v>11790000</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2464" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C2464" s="1">
+        <v>11720000</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2465" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C2465" s="1">
+        <v>11680000</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2466" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C2466" s="1">
+        <v>11735000</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2467" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C2467" s="1">
+        <v>11730000</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2468" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C2468" s="1">
+        <v>11805000</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2469" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C2469" s="1">
+        <v>11740000</v>
       </c>
     </row>
   </sheetData>

--- a/gold_coin_prices.xlsx
+++ b/gold_coin_prices.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="2468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="2522">
   <si>
     <t>92/02/17</t>
   </si>
@@ -7428,6 +7428,168 @@
   </si>
   <si>
     <t>1400/07/25</t>
+  </si>
+  <si>
+    <t>1400/07/26</t>
+  </si>
+  <si>
+    <t>27/07/1400</t>
+  </si>
+  <si>
+    <t>28/07/1400</t>
+  </si>
+  <si>
+    <t>29/07/1400</t>
+  </si>
+  <si>
+    <t>01/08/1400</t>
+  </si>
+  <si>
+    <t>03/08/1400</t>
+  </si>
+  <si>
+    <t>04/08/1400</t>
+  </si>
+  <si>
+    <t>05/08/1400</t>
+  </si>
+  <si>
+    <t>06/08/1400</t>
+  </si>
+  <si>
+    <t>08/08/1400</t>
+  </si>
+  <si>
+    <t>09/08/1400</t>
+  </si>
+  <si>
+    <t>10/08/1400</t>
+  </si>
+  <si>
+    <t>12/08/1400</t>
+  </si>
+  <si>
+    <t>13/08/1400</t>
+  </si>
+  <si>
+    <t>15/08/1400</t>
+  </si>
+  <si>
+    <t>16/08/1400</t>
+  </si>
+  <si>
+    <t>17/08/1400</t>
+  </si>
+  <si>
+    <t>18/08/1400</t>
+  </si>
+  <si>
+    <t>19/08/1400</t>
+  </si>
+  <si>
+    <t>20/08/1400</t>
+  </si>
+  <si>
+    <t>22/08/1400</t>
+  </si>
+  <si>
+    <t>23/08/1400</t>
+  </si>
+  <si>
+    <t>24/08/1400</t>
+  </si>
+  <si>
+    <t>25/08/1400</t>
+  </si>
+  <si>
+    <t>26/08/1400</t>
+  </si>
+  <si>
+    <t>27/08/1400</t>
+  </si>
+  <si>
+    <t>29/08/1400</t>
+  </si>
+  <si>
+    <t>30/08/1400</t>
+  </si>
+  <si>
+    <t>02/09/1400</t>
+  </si>
+  <si>
+    <t>01/09/1400</t>
+  </si>
+  <si>
+    <t>03/09/1400</t>
+  </si>
+  <si>
+    <t>07/09/1400</t>
+  </si>
+  <si>
+    <t>04/09/1400</t>
+  </si>
+  <si>
+    <t>06/09/1400</t>
+  </si>
+  <si>
+    <t>08/09/1400</t>
+  </si>
+  <si>
+    <t>09/09/1400</t>
+  </si>
+  <si>
+    <t>10/09/1400</t>
+  </si>
+  <si>
+    <t>11/09/1400</t>
+  </si>
+  <si>
+    <t>13/09/1400</t>
+  </si>
+  <si>
+    <t>14/09/1400</t>
+  </si>
+  <si>
+    <t>15/09/1400</t>
+  </si>
+  <si>
+    <t>16/09/1400</t>
+  </si>
+  <si>
+    <t>17/09/1400</t>
+  </si>
+  <si>
+    <t>18/09/1400</t>
+  </si>
+  <si>
+    <t>20/09/1400</t>
+  </si>
+  <si>
+    <t>21/09/1400</t>
+  </si>
+  <si>
+    <t>22/09/1400</t>
+  </si>
+  <si>
+    <t>23/09/1400</t>
+  </si>
+  <si>
+    <t>24/09/1400</t>
+  </si>
+  <si>
+    <t>25/09/1400</t>
+  </si>
+  <si>
+    <t>26/09/1400</t>
+  </si>
+  <si>
+    <t>28/09/1400</t>
+  </si>
+  <si>
+    <t>29/06/1400</t>
+  </si>
+  <si>
+    <t>30/06/1400</t>
   </si>
 </sst>
 </file>
@@ -13625,11 +13787,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312826544"/>
-        <c:axId val="312829264"/>
+        <c:axId val="-394761904"/>
+        <c:axId val="-394759184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312826544"/>
+        <c:axId val="-394761904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13672,7 +13834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312829264"/>
+        <c:crossAx val="-394759184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13680,7 +13842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312829264"/>
+        <c:axId val="-394759184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13731,7 +13893,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312826544"/>
+        <c:crossAx val="-394761904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14634,10 +14796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2469"/>
+  <dimension ref="A1:D2523"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2448" workbookViewId="0">
-      <selection activeCell="B2459" sqref="B2459"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51731,6 +51893,438 @@
         <v>11740000</v>
       </c>
     </row>
+    <row r="2470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2470" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C2470" s="1">
+        <v>11650000</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2471" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C2471" s="1">
+        <v>11750000</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2472" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C2472" s="1">
+        <v>11725000</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2473" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C2473" s="1">
+        <v>11815000</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2474" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C2474" s="1">
+        <v>11920000</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2475" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C2475" s="1">
+        <v>11890000</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2476" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C2476" s="1">
+        <v>11870000</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2477" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C2477" s="1">
+        <v>11935000</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2478" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C2478" s="1">
+        <v>11865000</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2479" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C2479" s="1">
+        <v>11870000</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2480" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C2480" s="1">
+        <v>11815000</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2481" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C2481" s="1">
+        <v>11840000</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2482" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C2482" s="1">
+        <v>11865000</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2483" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C2483" s="1">
+        <v>11915000</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2484" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C2484" s="1">
+        <v>11980000</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2485" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C2485" s="1">
+        <v>12150000</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2486" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C2486" s="1">
+        <v>12190000</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2487" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C2487" s="1">
+        <v>12220000</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2488" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C2488" s="1">
+        <v>12275000</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2489" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C2489" s="1">
+        <v>12540000</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2490" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C2490" s="1">
+        <v>12700000</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2491" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C2491" s="1">
+        <v>12560000</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2492" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C2492" s="1">
+        <v>12495000</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2493" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C2493" s="1">
+        <v>12570000</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2494" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C2494" s="1">
+        <v>12555000</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2495" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C2495" s="1">
+        <v>12470000</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2496" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C2496" s="1">
+        <v>12415000</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2497" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C2497" s="1">
+        <v>12480000</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2498" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C2498" s="1">
+        <v>12550000</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2499" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C2499" s="1">
+        <v>12480000</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2500" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C2500" s="1">
+        <v>12680000</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2501" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C2501" s="1">
+        <v>12600000</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2502" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C2502" s="1">
+        <v>12585000</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2503" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C2503" s="1">
+        <v>12595000</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2504" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C2504" s="1">
+        <v>12685000</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2505" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C2505" s="1">
+        <v>12555000</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2506" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C2506" s="1">
+        <v>12630000</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2507" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C2507" s="1">
+        <v>12597000</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2508" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C2508" s="1">
+        <v>13015000</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2509" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C2509" s="1">
+        <v>13040000</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2510" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C2510" s="1">
+        <v>13230000</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2511" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C2511" s="1">
+        <v>13265000</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2512" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C2512" s="1">
+        <v>13180000</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2513" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C2513" s="1">
+        <v>13165000</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2514" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C2514" s="1">
+        <v>13110000</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2515" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C2515" s="1">
+        <v>13070000</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2516" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C2516" s="1">
+        <v>12975000</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2517" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C2517" s="1">
+        <v>13140000</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2518" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C2518" s="1">
+        <v>13300000</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2519" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C2519" s="1">
+        <v>13250000</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2520" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C2520" s="1">
+        <v>13115000</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2521" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C2521" s="1">
+        <v>13050000</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2522" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C2522" s="1">
+        <v>13095000</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2523" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C2523" s="1">
+        <v>13235000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/gold_coin_prices.xlsx
+++ b/gold_coin_prices.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="2522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="2552">
   <si>
     <t>92/02/17</t>
   </si>
@@ -7586,10 +7586,100 @@
     <t>28/09/1400</t>
   </si>
   <si>
-    <t>29/06/1400</t>
-  </si>
-  <si>
-    <t>30/06/1400</t>
+    <t>29/09/1400</t>
+  </si>
+  <si>
+    <t>30/09/1400</t>
+  </si>
+  <si>
+    <t>01/10/1400</t>
+  </si>
+  <si>
+    <t>02/10/1400</t>
+  </si>
+  <si>
+    <t>04/10/1400</t>
+  </si>
+  <si>
+    <t>05/10/1400</t>
+  </si>
+  <si>
+    <t>06/10/1400</t>
+  </si>
+  <si>
+    <t>07/10/1400</t>
+  </si>
+  <si>
+    <t>08/10/1400</t>
+  </si>
+  <si>
+    <t>09/10/1400</t>
+  </si>
+  <si>
+    <t>11/10/1400</t>
+  </si>
+  <si>
+    <t>12/10/1400</t>
+  </si>
+  <si>
+    <t>13/10/1400</t>
+  </si>
+  <si>
+    <t>14/10/1400</t>
+  </si>
+  <si>
+    <t>15/10/1400</t>
+  </si>
+  <si>
+    <t>18/10/1400</t>
+  </si>
+  <si>
+    <t>19/10/1400</t>
+  </si>
+  <si>
+    <t>20/10/1400</t>
+  </si>
+  <si>
+    <t>21/10/1400</t>
+  </si>
+  <si>
+    <t>22/10/1400</t>
+  </si>
+  <si>
+    <t>23/10/1400</t>
+  </si>
+  <si>
+    <t>25/10/1400</t>
+  </si>
+  <si>
+    <t>26/10/1400</t>
+  </si>
+  <si>
+    <t>27/10/1400</t>
+  </si>
+  <si>
+    <t>28/10/1400</t>
+  </si>
+  <si>
+    <t>29/10/1400</t>
+  </si>
+  <si>
+    <t>30/10/1400</t>
+  </si>
+  <si>
+    <t>02/11/1400</t>
+  </si>
+  <si>
+    <t>03/11/1400</t>
+  </si>
+  <si>
+    <t>04/11/1400</t>
+  </si>
+  <si>
+    <t>05/11/1400</t>
+  </si>
+  <si>
+    <t>06/11/1400</t>
   </si>
 </sst>
 </file>
@@ -13787,11 +13877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-394761904"/>
-        <c:axId val="-394759184"/>
+        <c:axId val="-1696091296"/>
+        <c:axId val="-1696090752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-394761904"/>
+        <c:axId val="-1696091296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13834,7 +13924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394759184"/>
+        <c:crossAx val="-1696090752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13842,7 +13932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-394759184"/>
+        <c:axId val="-1696090752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13893,7 +13983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394761904"/>
+        <c:crossAx val="-1696091296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14796,10 +14886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2523"/>
+  <dimension ref="A1:D2553"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2536" workbookViewId="0">
+      <selection activeCell="B2545" sqref="B2545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52325,6 +52415,246 @@
         <v>13235000</v>
       </c>
     </row>
+    <row r="2524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2524" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C2524" s="1">
+        <v>13220000</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2525" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C2525" s="1">
+        <v>13250000</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2526" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C2526" s="1">
+        <v>13040000</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2527" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C2527" s="1">
+        <v>13085000</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2528" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C2528" s="1">
+        <v>13095000</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2529" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C2529" s="1">
+        <v>13025000</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2530" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C2530" s="1">
+        <v>13060000</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2531" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C2531" s="1">
+        <v>13145000</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2532" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C2532" s="1">
+        <v>13100000</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2533" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C2533" s="1">
+        <v>13065000</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2534" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C2534" s="1">
+        <v>13075000</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2535" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C2535" s="1">
+        <v>12900000</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2536" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C2536" s="1">
+        <v>12870000</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2537" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C2537" s="1">
+        <v>12850000</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2538" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C2538" s="1">
+        <v>12420000</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2539" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C2539" s="1">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2540" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C2540" s="1">
+        <v>12455000</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2541" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C2541" s="1">
+        <v>12370000</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2542" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C2542" s="1">
+        <v>12405000</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2543" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C2543" s="1">
+        <v>12255000</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2544" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2544" s="1">
+        <v>12300000</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2545" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C2545" s="1">
+        <v>12210000</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2546" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C2546" s="1">
+        <v>12230000</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2547" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C2547" s="1">
+        <v>12325000</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2548" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C2548" s="1">
+        <v>12425000</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2549" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C2549" s="1">
+        <v>12365000</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2550" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C2550" s="1">
+        <v>12520000</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2551" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C2551" s="1">
+        <v>12580000</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2552" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C2552" s="1">
+        <v>12445000</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2553" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C2553" s="1">
+        <v>12580000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/gold_coin_prices.xlsx
+++ b/gold_coin_prices.xlsx
@@ -13877,11 +13877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1696091296"/>
-        <c:axId val="-1696090752"/>
+        <c:axId val="-1992880448"/>
+        <c:axId val="-1992877728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1696091296"/>
+        <c:axId val="-1992880448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13924,7 +13924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1696090752"/>
+        <c:crossAx val="-1992877728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13932,7 +13932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1696090752"/>
+        <c:axId val="-1992877728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13983,7 +13983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1696091296"/>
+        <c:crossAx val="-1992880448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14888,8 +14888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2553"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2536" workbookViewId="0">
-      <selection activeCell="B2545" sqref="B2545"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2420" workbookViewId="0">
+      <selection activeCell="A2420" sqref="A2420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
